--- a/comp.xlsx
+++ b/comp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
@@ -6709,7 +6709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A380" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
@@ -14607,8 +14607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14620,7 +14620,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1417</v>
       </c>
@@ -15332,7 +15334,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
